--- a/biology/Botanique/Duchesnea/Duchesnea.xlsx
+++ b/biology/Botanique/Duchesnea/Duchesnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duchesnea est un genre de plantes à fleurs de la famille des Rosaceae.
-Selon Plants of the World Online, le genre est un synonyme de Potentilla[1].
+Selon Plants of the World Online, le genre est un synonyme de Potentilla.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petites plantes herbacées vivaces stolonifères. Les espèces de ce genre ressemblent superficiellement à des fraisiers ou à des potentilles faux fraisiers.
 </t>
@@ -569,7 +585,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duchesnea chrysantha (Zoll. &amp; Morritz) Miq.
 Duchesnea indica (Andr.) Focke
@@ -601,7 +619,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le comptage chromosomique de Duchesna montre une grande variabilité : 2n=2x=14, 3x=21, 4x=28, 7x=49, 8x=56, 12x=84
 Cette variabilité pourrait suggérer une origine hybride. Certaines études montrent que Duchesna pourrait avoir comme origine un hybride de Fragaria nilgerrensis (2n=2x=14) et d'une potentille tétra- ou octoploïde (2n=4x=28, 8x=56).
